--- a/DICCZPPR1130Download/tmp/tmp.xlsx
+++ b/DICCZPPR1130Download/tmp/tmp.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\DICCZPPR1130Download\tmp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A6C720-0B5F-463A-9471-ED582F525534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FilterAfter" sheetId="5" r:id="rId1"/>
-    <sheet name="BBulk" sheetId="6" r:id="rId2"/>
-    <sheet name="ProcType" sheetId="7" r:id="rId3"/>
+    <sheet name="All" sheetId="8" r:id="rId1"/>
+    <sheet name="FilterAfter" sheetId="5" r:id="rId2"/>
+    <sheet name="BBulk" sheetId="6" r:id="rId3"/>
+    <sheet name="ProcType" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="91">
   <si>
     <t>Do Not Cost</t>
   </si>
@@ -294,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -376,13 +383,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,9 +474,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,6 +526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,14 +718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70115660-66E1-41FC-9F3A-5EBE98E47687}">
   <dimension ref="A1:CO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
@@ -764,7 +808,7 @@
     <col min="93" max="93" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1054,14 +1098,394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CO1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="6" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="60" width="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="12" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="8" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="8" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="29" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12" bestFit="1" customWidth="1"/>
+    <col min="80" max="82" width="11" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="7" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="10" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="10" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:93" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO1"/>
   <sheetViews>
     <sheetView topLeftCell="BR1" workbookViewId="0">
       <selection activeCell="BV20" sqref="BV20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
@@ -1142,10 +1566,10 @@
     <col min="90" max="91" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="5"/>
+    <col min="94" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1433,15 +1857,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CO1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BR1" workbookViewId="0">
       <selection activeCell="BY23" sqref="BY23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
@@ -1522,10 +1946,10 @@
     <col min="90" max="91" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="5"/>
+    <col min="94" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
